--- a/Business/Finance/Sponsorship/Companies_Final.xlsx
+++ b/Business/Finance/Sponsorship/Companies_Final.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wildcatsunh-my.sharepoint.com/personal/cjn1012_wildcats_unh_edu/Documents/UNH SEDS/Sponsorship/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wildcatsunh-my.sharepoint.com/personal/cag1043_wildcats_unh_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="C07F81613A3397B02E8A81C0BB22B6CA54408621" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{F8B76443-5B07-4A7F-9DE9-8FA1135ED56E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41166FB5-48C8-44FB-AA60-3BB8835BF0C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sponsor List" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsor List'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="179020"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="870">
   <si>
     <t>Company Name</t>
   </si>
@@ -2196,16 +2197,468 @@
   </si>
   <si>
     <t>Call back next semester</t>
+  </si>
+  <si>
+    <t>Local Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>25 Henniker Street; Concord, NH 03301-8528 USA</t>
+  </si>
+  <si>
+    <t>528 Route 13 South Milford, NH 03055 </t>
+  </si>
+  <si>
+    <t>2073 NH-28, Deering, NH 03244</t>
+  </si>
+  <si>
+    <t>800 Central Ave, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>(603) 826-4005</t>
+  </si>
+  <si>
+    <t>112 Airport Dr, Rochester, NH 03867</t>
+  </si>
+  <si>
+    <t>85 Innovation Dr, Rochester, NH 03867</t>
+  </si>
+  <si>
+    <t>110 Towle Farm Rd, Hampton, NH 03842</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>230 Commerce Way #302, Portsmouth, NH 03801</t>
+    </r>
+  </si>
+  <si>
+    <t>wisconsin</t>
+  </si>
+  <si>
+    <t>(715) 842-0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ohio </t>
+  </si>
+  <si>
+    <t>(800) 821-3283</t>
+  </si>
+  <si>
+    <t>1 Bouchard St, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 669-8523</t>
+  </si>
+  <si>
+    <t>34 Executive Dr, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>(800) 274-2813</t>
+  </si>
+  <si>
+    <t>340 NH-16B, Center Ossipee, NH 03814</t>
+  </si>
+  <si>
+    <t>(603) 539-4538</t>
+  </si>
+  <si>
+    <t>575 Province Road Laconia, NH 03246</t>
+  </si>
+  <si>
+    <t>(603) 528-0141</t>
+  </si>
+  <si>
+    <t>8 Columbia Dr, Amherst, NH 03031</t>
+  </si>
+  <si>
+    <t>31 Industrial Park Dr, Hooksett, NH 03106</t>
+  </si>
+  <si>
+    <t>607 Calef Hwy #200, Barrington, NH 03825</t>
+  </si>
+  <si>
+    <t>10 Manor Pkwy #3, Salem, NH 03079</t>
+  </si>
+  <si>
+    <t>(603) 893-7600</t>
+  </si>
+  <si>
+    <t>3308, 50 Ammon Dr, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 669-4050</t>
+  </si>
+  <si>
+    <t>10 Basin St, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>(603) 225-2047</t>
+  </si>
+  <si>
+    <t>220 Daniel Webster Hwy, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>(603) 889-2500</t>
+  </si>
+  <si>
+    <t>74 Industrial Park Dr, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>121 Technology Dr, Durham, NH 03824</t>
+  </si>
+  <si>
+    <t>15 Newmarket Rd, Durham, NH 03824</t>
+  </si>
+  <si>
+    <t>933 Islington St, Portsmouth, NH 03801</t>
+  </si>
+  <si>
+    <t>22 Interstate Dr, Somersworth, NH 03878</t>
+  </si>
+  <si>
+    <t>71 Pine Rd # F, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>(603) 883-6531</t>
+  </si>
+  <si>
+    <t>300 Dan Rd, Canton, MA 02021</t>
+  </si>
+  <si>
+    <t>(781) 830-0340</t>
+  </si>
+  <si>
+    <t>305 Massabesic St, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>166 Crescent Rd, Needham Heights, MA 02494</t>
+  </si>
+  <si>
+    <t>390 Highland Ave, Littleton, NH 03561</t>
+  </si>
+  <si>
+    <t>(866) 977-5312</t>
+  </si>
+  <si>
+    <t>37 Will St, Nashua, NH 03060</t>
+  </si>
+  <si>
+    <t>(800) 488-7747</t>
+  </si>
+  <si>
+    <t>74 Bodwell St, Avon, MA 02322</t>
+  </si>
+  <si>
+    <t>(508) 587-3500</t>
+  </si>
+  <si>
+    <t>234 Abby Rd, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 644-1555</t>
+  </si>
+  <si>
+    <t>71 Portsmouth Ave, Stratham, NH 03885</t>
+  </si>
+  <si>
+    <t>(603) 772-0000</t>
+  </si>
+  <si>
+    <t>282 W Knox Marsh Rd, Madbury, NH 03823</t>
+  </si>
+  <si>
+    <t>(603) 743-3559</t>
+  </si>
+  <si>
+    <t>248 Mill Rd, Chelmsford, MA 01824</t>
+  </si>
+  <si>
+    <t>(978) 256-7231</t>
+  </si>
+  <si>
+    <t>35 Industrial Way, Rochester, NH 03867</t>
+  </si>
+  <si>
+    <t>(603) 692-6300</t>
+  </si>
+  <si>
+    <t>626 Lafayette Rd, Seabrook, NH 03874</t>
+  </si>
+  <si>
+    <t>113 Wells St, North Berwick, ME 03906</t>
+  </si>
+  <si>
+    <t>45 S Main St, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>(603) 226-0404</t>
+  </si>
+  <si>
+    <t>46 Manila Ave, Hamden, CT 06514</t>
+  </si>
+  <si>
+    <t>(203) 288-8241</t>
+  </si>
+  <si>
+    <t>20 Trafalgar Square, Nashua, NH 03063</t>
+  </si>
+  <si>
+    <t>(603) 883-5200</t>
+  </si>
+  <si>
+    <t>7 Micro Dr, Woburn, MA 01801</t>
+  </si>
+  <si>
+    <t>(781) 932-0035</t>
+  </si>
+  <si>
+    <t>45 Londonderry Turnpike #5, Hooksett, NH 03106</t>
+  </si>
+  <si>
+    <t>(603) 666-0200</t>
+  </si>
+  <si>
+    <t>36 Cote Ave, Goffstown, NH 03045</t>
+  </si>
+  <si>
+    <t>(603) 626-5500</t>
+  </si>
+  <si>
+    <t>11 Caldwell Dr, Amherst, NH 03031</t>
+  </si>
+  <si>
+    <t>(603) 204-5542</t>
+  </si>
+  <si>
+    <t>36 Lane Rd, Derry, NH 03038</t>
+  </si>
+  <si>
+    <t>(603) 434-2097</t>
+  </si>
+  <si>
+    <t>44 Crystal Ave, Derry, NH 03038</t>
+  </si>
+  <si>
+    <t>(603) 425-6222</t>
+  </si>
+  <si>
+    <t>102 Tide Mill Rd # 12, Hampton, NH 03842</t>
+  </si>
+  <si>
+    <t>9 Akira Way, Londonderry, NH 03053</t>
+  </si>
+  <si>
+    <t>41 Washington St, Seabrook, NH 03874</t>
+  </si>
+  <si>
+    <t>144 Lexington Dr, Laconia, NH 03246</t>
+  </si>
+  <si>
+    <t>(603) 528-1871</t>
+  </si>
+  <si>
+    <t>1057 Calef Hwy, Barrington, NH 03825</t>
+  </si>
+  <si>
+    <t>(603) 664-4004</t>
+  </si>
+  <si>
+    <t>316 Daniel Webster Hwy, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>(603) 429-9700</t>
+  </si>
+  <si>
+    <t>20 Continental Blvd, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>(603) 670-9977</t>
+  </si>
+  <si>
+    <t>44 Maple St, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>(603) 740-9818</t>
+  </si>
+  <si>
+    <t>25 Front St, Nashua, NH 03064</t>
+  </si>
+  <si>
+    <t>325 Corporate Dr, Portsmouth, NH 03801</t>
+  </si>
+  <si>
+    <t>(603) 436-0700</t>
+  </si>
+  <si>
+    <t>1 Industrial Dr, Pelham, NH 03076</t>
+  </si>
+  <si>
+    <t>(603) 889-6871</t>
+  </si>
+  <si>
+    <t>15 Wing Farm Pkwy, Bath, ME 04530</t>
+  </si>
+  <si>
+    <t>(207) 442-7007</t>
+  </si>
+  <si>
+    <t>42 Dick Tracy Dr, Pelham, NH 03076</t>
+  </si>
+  <si>
+    <t>(603) 886-7226</t>
+  </si>
+  <si>
+    <t>33 Londonderry Rd # 13, Londonderry, NH 03053</t>
+  </si>
+  <si>
+    <t>38 Henniker St, Concord, NH 03301</t>
+  </si>
+  <si>
+    <t>39 Bridge St, Nashua, NH 03060</t>
+  </si>
+  <si>
+    <t>(603) 594-8787</t>
+  </si>
+  <si>
+    <t>168 Lawrence Rd, Salem, NH 03079</t>
+  </si>
+  <si>
+    <t>48 Spencer St, Lebanon, NH 03766</t>
+  </si>
+  <si>
+    <t>(603) 448-1562</t>
+  </si>
+  <si>
+    <t>594 Elm St, Milford, NH 03055</t>
+  </si>
+  <si>
+    <t>(603) 673-1100</t>
+  </si>
+  <si>
+    <t>1500 Main St, Springfield, MA 01103</t>
+  </si>
+  <si>
+    <t>(413) 382-0210</t>
+  </si>
+  <si>
+    <t>311 Kimball Hill Rd, Wilton, NH 03086</t>
+  </si>
+  <si>
+    <t>(866) 742-0442</t>
+  </si>
+  <si>
+    <t>153 Main St, Salem, NH 03079</t>
+  </si>
+  <si>
+    <t>(603) 898-3467</t>
+  </si>
+  <si>
+    <t>680 Hayward St, Manchester, NH 03103</t>
+  </si>
+  <si>
+    <t>(603) 622-3500</t>
+  </si>
+  <si>
+    <t>879 Maple St, Contoocook, NH 03229</t>
+  </si>
+  <si>
+    <t>(603) 746-5524</t>
+  </si>
+  <si>
+    <t>230 Old Homestead Hwy, Swanzey, NH 03446</t>
+  </si>
+  <si>
+    <t>57 Daniel Webster Hwy, Merrimack, NH 03054</t>
+  </si>
+  <si>
+    <t>145 Bodwell St # J, Avon, MA 02322</t>
+  </si>
+  <si>
+    <t>(508) 580-2024</t>
+  </si>
+  <si>
+    <t>47 Crosby Rd, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>1275 Maplewood Ave # 24, Portsmouth, NH 03801</t>
+  </si>
+  <si>
+    <t>235 Presidential Way, Woburn, MA 01801</t>
+  </si>
+  <si>
+    <t>(339) 645-6000</t>
+  </si>
+  <si>
+    <t>Jaffrey, NH</t>
+  </si>
+  <si>
+    <t>(603) 593-5346</t>
+  </si>
+  <si>
+    <t>315 Derry St # 15, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>55 Industrial Park Dr, Franklin, NH 03235</t>
+  </si>
+  <si>
+    <t>(603) 671-7016</t>
+  </si>
+  <si>
+    <t>82 Benning St, West Lebanon, NH 03784</t>
+  </si>
+  <si>
+    <t>7 Optical Ave, Keene, NH 03431</t>
+  </si>
+  <si>
+    <t>(603) 352-0310</t>
+  </si>
+  <si>
+    <t>10 Willand Dr, Somersworth, NH 03878</t>
+  </si>
+  <si>
+    <t>(603) 750-7100</t>
+  </si>
+  <si>
+    <t>100 Piscataqua Dr, Newington, NH 03801</t>
+  </si>
+  <si>
+    <t>1 Washington St, Dover, NH 03820</t>
+  </si>
+  <si>
+    <t>20 Executive Dr, Hudson, NH 03051</t>
+  </si>
+  <si>
+    <t>(603) 577-9970</t>
+  </si>
+  <si>
+    <t>330 New Rochester Road, Somersworth, NH 03878</t>
+  </si>
+  <si>
+    <t>(603) 692-0398</t>
+  </si>
+  <si>
+    <t>33 Bridge St, Pelham, NH 03076</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2228,16 +2681,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5B5B5B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2245,36 +2737,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2286,6 +2781,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2716,44 +3222,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="B1:J210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B1:J210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B2:J210">
     <sortCondition ref="B1:B210"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Company Name" dataDxfId="20"/>
-    <tableColumn id="2" name="Phone Number" dataDxfId="19"/>
-    <tableColumn id="6" name="Secondary Phone Number" dataDxfId="18"/>
-    <tableColumn id="3" name="Email" dataDxfId="17"/>
-    <tableColumn id="4" name="Secondary Email (If Given)" dataDxfId="16"/>
-    <tableColumn id="5" name="Contact Name for EMAIL" dataDxfId="15"/>
-    <tableColumn id="7" name="Information" dataDxfId="14"/>
-    <tableColumn id="8" name="LinkedIn/WebForm" dataDxfId="13"/>
-    <tableColumn id="9" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Phone Number" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Secondary Phone Number" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Email" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Secondary Email (If Given)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Contact Name for EMAIL" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Information" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LinkedIn/WebForm" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K129" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:K129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:K129" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:K129" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:K129">
     <sortCondition ref="E1:E129"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Current" dataDxfId="10"/>
-    <tableColumn id="2" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Number" dataDxfId="8"/>
-    <tableColumn id="4" name="Secondary Number" dataDxfId="7"/>
-    <tableColumn id="5" name="Email" dataDxfId="6"/>
-    <tableColumn id="6" name="Secondary Email" dataDxfId="5"/>
-    <tableColumn id="7" name="Name2" dataDxfId="4"/>
-    <tableColumn id="8" name="Info" dataDxfId="3"/>
-    <tableColumn id="9" name="Info3" dataDxfId="2"/>
-    <tableColumn id="10" name="Info4" dataDxfId="1"/>
-    <tableColumn id="11" name="Info5" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Current" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Number" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Secondary Number" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Email" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Secondary Email" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name2" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Info" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Info3" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Info4" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Info5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3045,14 +3551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView topLeftCell="E175" workbookViewId="0">
+    <sheetView topLeftCell="E175" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
@@ -3085,13 +3591,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3105,12 +3611,12 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2"/>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="L2" s="6"/>
+      <c r="J2"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -3122,15 +3628,15 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
@@ -3142,15 +3648,15 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
@@ -3162,11 +3668,11 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
@@ -3178,10 +3684,10 @@
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
@@ -3202,13 +3708,13 @@
       <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="6"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
@@ -3220,12 +3726,12 @@
       <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
@@ -3243,10 +3749,10 @@
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="L9" s="6"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
@@ -3264,10 +3770,10 @@
       <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" s="6"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
@@ -3279,14 +3785,14 @@
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="L11" s="6"/>
+      <c r="J11"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
@@ -3298,55 +3804,55 @@
       <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="6"/>
+      <c r="F12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13"/>
+      <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14"/>
+      <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="6"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
@@ -3361,13 +3867,13 @@
       <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="F15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
@@ -3379,12 +3885,12 @@
       <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
@@ -3396,10 +3902,10 @@
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" s="6"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
@@ -3414,7 +3920,7 @@
       <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3423,10 +3929,10 @@
       <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" s="6"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
@@ -3438,15 +3944,15 @@
       <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
@@ -3461,16 +3967,16 @@
       <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" s="6"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
@@ -3482,15 +3988,15 @@
       <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
@@ -3502,13 +4008,13 @@
       <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22"/>
       <c r="H22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="6"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
@@ -3523,9 +4029,9 @@
       <c r="D23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
@@ -3537,18 +4043,18 @@
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
@@ -3560,9 +4066,9 @@
       <c r="C25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
@@ -3574,15 +4080,15 @@
       <c r="C26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
@@ -3594,12 +4100,12 @@
       <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27"/>
       <c r="H27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -3611,11 +4117,11 @@
       <c r="C28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="5" t="s">
+      <c r="H28"/>
+      <c r="I28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
@@ -3630,9 +4136,9 @@
       <c r="E29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
@@ -3644,14 +4150,14 @@
       <c r="C30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="5" t="s">
+      <c r="H30"/>
+      <c r="I30" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3668,9 +4174,9 @@
       <c r="G31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
@@ -3685,9 +4191,9 @@
       <c r="E32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
@@ -3705,9 +4211,9 @@
       <c r="G33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
@@ -3719,12 +4225,12 @@
       <c r="C34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
@@ -3736,12 +4242,12 @@
       <c r="C35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
@@ -3753,12 +4259,12 @@
       <c r="C36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
@@ -3770,12 +4276,12 @@
       <c r="C37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
@@ -3787,9 +4293,9 @@
       <c r="C38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
@@ -3804,9 +4310,9 @@
       <c r="G39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
@@ -3818,9 +4324,9 @@
       <c r="C40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
@@ -3835,9 +4341,9 @@
       <c r="G41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
@@ -3849,11 +4355,11 @@
       <c r="C42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="5" t="s">
+      <c r="H42"/>
+      <c r="I42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J42"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
@@ -3865,9 +4371,9 @@
       <c r="C43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
@@ -3882,8 +4388,8 @@
       <c r="E44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44"/>
+      <c r="J44"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -3895,12 +4401,12 @@
       <c r="C45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
@@ -3915,9 +4421,9 @@
       <c r="G46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
@@ -3932,10 +4438,10 @@
       <c r="D47" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="L47" s="6"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
@@ -3947,17 +4453,17 @@
       <c r="C48" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="4" t="s">
         <v>175</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" t="s">
         <v>177</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="I48"/>
+      <c r="J48"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
@@ -3969,9 +4475,9 @@
       <c r="C49" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
@@ -3983,12 +4489,12 @@
       <c r="C50" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
@@ -4009,8 +4515,8 @@
       <c r="H51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="I51"/>
+      <c r="J51"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
@@ -4025,27 +4531,27 @@
       <c r="G52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
     </row>
     <row r="53" spans="1:10">
       <c r="B53" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" t="s">
         <v>195</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4065,9 +4571,9 @@
       <c r="G54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
@@ -4079,9 +4585,9 @@
       <c r="C55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
@@ -4099,9 +4605,9 @@
       <c r="F56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
@@ -4113,9 +4619,9 @@
       <c r="G57" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
@@ -4130,9 +4636,9 @@
       <c r="E58" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
@@ -4141,14 +4647,14 @@
       <c r="B59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>193</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5" t="s">
+      <c r="H59"/>
+      <c r="I59" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J59" s="3"/>
+      <c r="J59"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
@@ -4166,9 +4672,9 @@
       <c r="G60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
@@ -4186,9 +4692,9 @@
       <c r="G61" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
@@ -4200,9 +4706,9 @@
       <c r="C62" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
@@ -4214,29 +4720,29 @@
       <c r="C63" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="5" t="s">
+      <c r="D64"/>
+      <c r="E64" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
@@ -4251,9 +4757,9 @@
       <c r="G65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
@@ -4271,9 +4777,9 @@
       <c r="G66" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
@@ -4288,9 +4794,9 @@
       <c r="E67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
@@ -4302,9 +4808,9 @@
       <c r="C68" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
@@ -4322,9 +4828,9 @@
       <c r="G69" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
@@ -4336,8 +4842,8 @@
       <c r="C70" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="I70"/>
+      <c r="J70"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1">
       <c r="A71" s="1" t="s">
@@ -4352,9 +4858,9 @@
       <c r="E71" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
@@ -4369,9 +4875,9 @@
       <c r="G72" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
@@ -4383,7 +4889,7 @@
       <c r="C73" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>258</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4392,7 +4898,7 @@
       <c r="I73" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J73" s="3"/>
+      <c r="J73"/>
     </row>
     <row r="74" spans="1:10" ht="17.25" customHeight="1">
       <c r="A74" s="1" t="s">
@@ -4404,13 +4910,13 @@
       <c r="C74" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="3"/>
       <c r="G74" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
@@ -4425,9 +4931,9 @@
       <c r="G75" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
@@ -4442,9 +4948,9 @@
       <c r="G76" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
@@ -4459,9 +4965,9 @@
       <c r="G77" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
@@ -4476,9 +4982,9 @@
       <c r="E78" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
@@ -4496,9 +5002,9 @@
       <c r="G79" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
@@ -4513,9 +5019,9 @@
       <c r="E80" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
@@ -4524,14 +5030,14 @@
       <c r="B81" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>193</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="5" t="s">
+      <c r="H81"/>
+      <c r="I81" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="J81" s="3"/>
+      <c r="J81"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
@@ -4546,9 +5052,9 @@
       <c r="G82" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
@@ -4566,9 +5072,9 @@
       <c r="G83" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
@@ -4577,14 +5083,14 @@
       <c r="B84" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="5" t="s">
+      <c r="H84"/>
+      <c r="I84" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="J84" s="3"/>
+      <c r="J84"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
@@ -4596,12 +5102,12 @@
       <c r="C85" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
@@ -4613,18 +5119,18 @@
       <c r="C86" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86"/>
       <c r="G86" s="1" t="s">
         <v>300</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" t="s">
         <v>302</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="L86" s="6"/>
+      <c r="J86"/>
+      <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
@@ -4636,9 +5142,9 @@
       <c r="C87" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
@@ -4653,9 +5159,9 @@
       <c r="G88" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3" t="s">
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4669,9 +5175,9 @@
       <c r="C89" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
@@ -4683,9 +5189,9 @@
       <c r="C90" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
@@ -4697,9 +5203,9 @@
       <c r="C91" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
@@ -4711,13 +5217,13 @@
       <c r="C92" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="6" t="s">
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="H92"/>
+      <c r="I92" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="J92" s="3"/>
+      <c r="J92"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
@@ -4729,9 +5235,9 @@
       <c r="C93" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
@@ -4746,16 +5252,16 @@
       <c r="E94" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94"/>
       <c r="G94" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="L94" s="6"/>
-    </row>
-    <row r="95" spans="1:12" ht="30">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" ht="29.1">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -4769,17 +5275,17 @@
       <c r="E95" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" t="s">
         <v>328</v>
       </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="I95"/>
+      <c r="J95"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
@@ -4794,15 +5300,15 @@
       <c r="D96" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F96" s="3"/>
+      <c r="F96"/>
       <c r="G96" s="1" t="s">
         <v>332</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="I96"/>
+      <c r="J96"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
@@ -4811,14 +5317,14 @@
       <c r="B97" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="F97"/>
+      <c r="J97"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
@@ -4827,15 +5333,15 @@
       <c r="B98" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" t="s">
         <v>193</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="5" t="s">
+      <c r="F98"/>
+      <c r="H98"/>
+      <c r="I98" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J98" s="3"/>
+      <c r="J98"/>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
@@ -4847,9 +5353,9 @@
       <c r="C99" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
@@ -4864,15 +5370,15 @@
       <c r="E100" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="4" t="s">
         <v>344</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
@@ -4887,33 +5393,33 @@
       <c r="E101" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F101" s="3"/>
+      <c r="F101"/>
       <c r="G101" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>350</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s">
         <v>351</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="5" t="s">
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="J102" s="3"/>
+      <c r="J102"/>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
@@ -4931,13 +5437,13 @@
       <c r="E103" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F103" s="3"/>
+      <c r="F103"/>
       <c r="G103" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
@@ -4949,9 +5455,9 @@
       <c r="C104" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
@@ -4963,16 +5469,16 @@
       <c r="C105" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F105" s="3"/>
+      <c r="F105"/>
       <c r="G105" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
@@ -4987,13 +5493,13 @@
       <c r="E106" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106"/>
       <c r="G106" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
@@ -5008,13 +5514,13 @@
       <c r="E107" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107"/>
       <c r="G107" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
@@ -5032,15 +5538,15 @@
       <c r="E108" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108"/>
       <c r="G108" s="1" t="s">
         <v>379</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="I108"/>
+      <c r="J108"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
@@ -5052,11 +5558,11 @@
       <c r="C109" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" t="s">
         <v>383</v>
       </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="I109"/>
+      <c r="J109"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
@@ -5068,11 +5574,11 @@
       <c r="C110" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="H110" s="3" t="s">
+      <c r="E110"/>
+      <c r="H110" t="s">
         <v>386</v>
       </c>
-      <c r="J110" s="3"/>
+      <c r="J110"/>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
@@ -5087,12 +5593,12 @@
       <c r="E111" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
@@ -5104,15 +5610,15 @@
       <c r="C112" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112"/>
       <c r="G112" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H112" t="s">
         <v>394</v>
       </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="I112"/>
+      <c r="J112"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
@@ -5127,13 +5633,13 @@
       <c r="E113" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113"/>
       <c r="G113" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
@@ -5148,13 +5654,13 @@
       <c r="E114" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114"/>
       <c r="G114" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
@@ -5166,13 +5672,13 @@
       <c r="C115" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="F115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
@@ -5184,16 +5690,16 @@
       <c r="C116" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="F116"/>
       <c r="G116" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
@@ -5205,9 +5711,9 @@
       <c r="C117" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
@@ -5222,13 +5728,13 @@
       <c r="E118" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="F118"/>
       <c r="G118" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
@@ -5240,13 +5746,13 @@
       <c r="C119" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="F119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
@@ -5261,13 +5767,13 @@
       <c r="E120" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="F120"/>
       <c r="G120" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
@@ -5279,10 +5785,10 @@
       <c r="C121" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="F121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
@@ -5300,10 +5806,10 @@
       <c r="F122" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="L122" s="6"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
@@ -5315,10 +5821,10 @@
       <c r="C123" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="L123" s="6"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
@@ -5330,10 +5836,10 @@
       <c r="C124" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="F124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
@@ -5348,9 +5854,9 @@
       <c r="E125" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="1" t="s">
@@ -5362,17 +5868,17 @@
       <c r="E126" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="F126" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" t="s">
         <v>445</v>
       </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="I126"/>
+      <c r="J126"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
@@ -5384,19 +5890,19 @@
       <c r="C127" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3" t="s">
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127" t="s">
         <v>450</v>
       </c>
-      <c r="L127" s="6"/>
+      <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
@@ -5408,9 +5914,9 @@
       <c r="C128" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
     </row>
     <row r="129" spans="1:12">
       <c r="B129" s="1" t="s">
@@ -5419,9 +5925,9 @@
       <c r="C129" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1" t="s">
@@ -5433,13 +5939,13 @@
       <c r="C130" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" t="s">
         <v>456</v>
       </c>
-      <c r="I130" s="5" t="s">
+      <c r="I130" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="J130" s="3"/>
+      <c r="J130"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1" t="s">
@@ -5457,9 +5963,9 @@
       <c r="G131" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
@@ -5474,12 +5980,12 @@
       <c r="D132" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
@@ -5494,9 +6000,9 @@
       <c r="G133" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
@@ -5508,16 +6014,16 @@
       <c r="C134" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="6" t="s">
+      <c r="D134"/>
+      <c r="E134" s="4" t="s">
         <v>472</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
@@ -5529,9 +6035,9 @@
       <c r="C135" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
@@ -5549,9 +6055,9 @@
       <c r="G136" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
@@ -5563,9 +6069,9 @@
       <c r="C137" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
@@ -5580,11 +6086,11 @@
       <c r="D138" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H138" s="3"/>
-      <c r="I138" s="5" t="s">
+      <c r="H138"/>
+      <c r="I138" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="J138" s="3"/>
+      <c r="J138"/>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
@@ -5596,11 +6102,11 @@
       <c r="C139" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" t="s">
         <v>489</v>
       </c>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="I139"/>
+      <c r="J139"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
@@ -5612,9 +6118,9 @@
       <c r="C140" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1" t="s">
@@ -5626,11 +6132,11 @@
       <c r="C141" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" t="s">
         <v>494</v>
       </c>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="I141"/>
+      <c r="J141"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
@@ -5645,9 +6151,9 @@
       <c r="D142" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1" t="s">
@@ -5665,12 +6171,12 @@
       <c r="E143" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H143" s="3"/>
-      <c r="I143" s="5" t="s">
+      <c r="H143"/>
+      <c r="I143" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="J143" s="3"/>
-      <c r="L143" s="6"/>
+      <c r="J143"/>
+      <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1" t="s">
@@ -5685,9 +6191,9 @@
       <c r="E144" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
@@ -5699,12 +6205,12 @@
       <c r="C145" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
@@ -5716,17 +6222,17 @@
       <c r="C146" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="4" t="s">
         <v>512</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" t="s">
         <v>514</v>
       </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3" t="s">
+      <c r="I146"/>
+      <c r="J146" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5734,21 +6240,21 @@
       <c r="A147" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" t="s">
         <v>517</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s">
         <v>518</v>
       </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="5" t="s">
+      <c r="D147"/>
+      <c r="E147" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
@@ -5760,17 +6266,17 @@
       <c r="C148" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="4" t="s">
         <v>523</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" t="s">
         <v>525</v>
       </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="I148"/>
+      <c r="J148"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
@@ -5788,8 +6294,8 @@
       <c r="H149" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="I149"/>
+      <c r="J149"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
@@ -5798,14 +6304,14 @@
       <c r="B150" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" t="s">
         <v>193</v>
       </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3" t="s">
+      <c r="H150"/>
+      <c r="I150" t="s">
         <v>533</v>
       </c>
-      <c r="J150" s="3"/>
+      <c r="J150"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
@@ -5817,9 +6323,9 @@
       <c r="C151" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
@@ -5831,14 +6337,14 @@
       <c r="C152" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E152" s="3"/>
+      <c r="E152"/>
       <c r="H152" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I152" s="6" t="s">
+      <c r="I152" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="J152" s="3"/>
+      <c r="J152"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
@@ -5850,9 +6356,9 @@
       <c r="C153" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
@@ -5864,19 +6370,19 @@
       <c r="C154" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="4" t="s">
         <v>542</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" t="s">
         <v>544</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I154" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="J154" s="3"/>
+      <c r="J154"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
@@ -5897,9 +6403,9 @@
       <c r="G155" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
@@ -5914,11 +6420,11 @@
       <c r="D156" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" t="s">
         <v>554</v>
       </c>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="I156"/>
+      <c r="J156"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
@@ -5930,11 +6436,11 @@
       <c r="C157" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" t="s">
         <v>554</v>
       </c>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="I157"/>
+      <c r="J157"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
@@ -5952,9 +6458,9 @@
       <c r="G158" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1" t="s">
@@ -5966,16 +6472,16 @@
       <c r="C159" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="F159" s="6"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="3" t="s">
+      <c r="F159" s="4"/>
+      <c r="H159"/>
+      <c r="I159" s="4"/>
+      <c r="J159" t="s">
         <v>566</v>
       </c>
-      <c r="L159" s="6"/>
+      <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1" t="s">
@@ -5990,9 +6496,9 @@
       <c r="E160" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1" t="s">
@@ -6010,10 +6516,10 @@
       <c r="G161" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="L161" s="6"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1" t="s">
@@ -6025,12 +6531,12 @@
       <c r="C162" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="6" t="s">
+      <c r="E162"/>
+      <c r="H162"/>
+      <c r="I162" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="J162" s="3"/>
+      <c r="J162"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1" t="s">
@@ -6045,9 +6551,9 @@
       <c r="D163" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1" t="s">
@@ -6059,19 +6565,19 @@
       <c r="C164" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="4" t="s">
         <v>582</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" t="s">
         <v>584</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="I164" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="J164" s="3"/>
+      <c r="J164"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="1" t="s">
@@ -6083,12 +6589,12 @@
       <c r="C165" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="6" t="s">
+      <c r="E165"/>
+      <c r="H165"/>
+      <c r="I165" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="J165" s="3"/>
+      <c r="J165"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="1" t="s">
@@ -6103,9 +6609,9 @@
       <c r="E166" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1" t="s">
@@ -6120,7 +6626,7 @@
       <c r="D167" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>595</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -6129,13 +6635,13 @@
       <c r="G167" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" t="s">
         <v>598</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="J167" s="3"/>
+      <c r="J167"/>
     </row>
     <row r="168" spans="1:12">
       <c r="B168" s="1" t="s">
@@ -6147,9 +6653,9 @@
       <c r="E168" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1" t="s">
@@ -6164,9 +6670,9 @@
       <c r="D169" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3" t="s">
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169" t="s">
         <v>606</v>
       </c>
     </row>
@@ -6183,10 +6689,10 @@
       <c r="E170" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="L170" s="6"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1" t="s">
@@ -6198,9 +6704,9 @@
       <c r="C171" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1" t="s">
@@ -6212,12 +6718,12 @@
       <c r="C172" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E172" s="6"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="6" t="s">
+      <c r="E172" s="4"/>
+      <c r="H172"/>
+      <c r="I172" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="J172" s="3"/>
+      <c r="J172"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1" t="s">
@@ -6229,10 +6735,10 @@
       <c r="C173" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="L173" s="6"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1" t="s">
@@ -6244,9 +6750,9 @@
       <c r="C174" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="1" t="s">
@@ -6258,13 +6764,13 @@
       <c r="C175" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="L175" s="6"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1" t="s">
@@ -6279,9 +6785,9 @@
       <c r="E176" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1" t="s">
@@ -6293,12 +6799,12 @@
       <c r="C177" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E177" s="6"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="6" t="s">
+      <c r="E177" s="4"/>
+      <c r="H177"/>
+      <c r="I177" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="J177" s="3"/>
+      <c r="J177"/>
     </row>
     <row r="178" spans="1:12">
       <c r="B178" s="1" t="s">
@@ -6307,12 +6813,12 @@
       <c r="C178" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
@@ -6327,8 +6833,8 @@
       <c r="H179" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="I179"/>
+      <c r="J179"/>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1" t="s">
@@ -6343,9 +6849,9 @@
       <c r="E180" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="1" t="s">
@@ -6357,9 +6863,9 @@
       <c r="C181" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1" t="s">
@@ -6371,13 +6877,13 @@
       <c r="C182" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="L182" s="6"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="L182" s="4"/>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1" t="s">
@@ -6392,11 +6898,11 @@
       <c r="G183" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H183" s="3"/>
+      <c r="H183"/>
       <c r="I183" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="J183" s="3"/>
+      <c r="J183"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1" t="s">
@@ -6408,12 +6914,12 @@
       <c r="C184" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E184" s="6"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="6" t="s">
+      <c r="E184" s="4"/>
+      <c r="H184"/>
+      <c r="I184" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="J184" s="3"/>
+      <c r="J184"/>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1" t="s">
@@ -6425,9 +6931,9 @@
       <c r="C185" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="1" t="s">
@@ -6448,7 +6954,7 @@
       <c r="I186" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="J186" s="3"/>
+      <c r="J186"/>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1" t="s">
@@ -6460,9 +6966,9 @@
       <c r="C187" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="1" t="s">
@@ -6480,9 +6986,9 @@
       <c r="G188" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1" t="s">
@@ -6494,13 +7000,13 @@
       <c r="C189" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E189" s="6"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="6" t="s">
+      <c r="E189" s="4"/>
+      <c r="H189"/>
+      <c r="I189" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="J189" s="3"/>
-      <c r="L189" s="6"/>
+      <c r="J189"/>
+      <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1" t="s">
@@ -6515,9 +7021,9 @@
       <c r="G190" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="H190"/>
+      <c r="I190"/>
+      <c r="J190"/>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1" t="s">
@@ -6529,12 +7035,12 @@
       <c r="C191" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="1" t="s">
@@ -6546,9 +7052,9 @@
       <c r="C192" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3" t="s">
+      <c r="H192"/>
+      <c r="I192"/>
+      <c r="J192" t="s">
         <v>679</v>
       </c>
     </row>
@@ -6568,9 +7074,9 @@
       <c r="G193" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="1" t="s">
@@ -6582,9 +7088,9 @@
       <c r="C194" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="1" t="s">
@@ -6596,13 +7102,13 @@
       <c r="C195" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" t="s">
         <v>691</v>
       </c>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="L195" s="6"/>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="L195" s="4"/>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="1" t="s">
@@ -6617,9 +7123,9 @@
       <c r="E196" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="1" t="s">
@@ -6634,9 +7140,9 @@
       <c r="E197" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="1" t="s">
@@ -6651,197 +7157,197 @@
       <c r="G198" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H198" t="s">
         <v>701</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J198" s="3"/>
+      <c r="J198"/>
     </row>
     <row r="199" spans="1:12">
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
     </row>
     <row r="200" spans="1:12">
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
     </row>
     <row r="202" spans="1:12">
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
     </row>
     <row r="204" spans="1:12">
-      <c r="C204" s="3"/>
-      <c r="D204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
+      <c r="C204"/>
+      <c r="D204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
     </row>
     <row r="205" spans="1:12">
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
     </row>
     <row r="206" spans="1:12">
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
     </row>
     <row r="207" spans="1:12">
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
     </row>
     <row r="208" spans="1:12">
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
     </row>
     <row r="209" spans="2:10">
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
     </row>
     <row r="210" spans="2:10">
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
     </row>
     <row r="234" spans="5:12">
-      <c r="E234" s="6"/>
-      <c r="L234" s="6"/>
+      <c r="E234" s="4"/>
+      <c r="L234" s="4"/>
     </row>
     <row r="270" spans="5:12">
-      <c r="E270" s="6"/>
-      <c r="L270" s="6"/>
+      <c r="E270" s="4"/>
+      <c r="L270" s="4"/>
     </row>
     <row r="271" spans="5:12">
-      <c r="F271" s="6"/>
+      <c r="F271" s="4"/>
     </row>
     <row r="272" spans="5:12">
-      <c r="E272" s="6"/>
-      <c r="L272" s="6"/>
+      <c r="E272" s="4"/>
+      <c r="L272" s="4"/>
     </row>
     <row r="274" spans="5:12">
-      <c r="E274" s="6"/>
-      <c r="L274" s="6"/>
+      <c r="E274" s="4"/>
+      <c r="L274" s="4"/>
     </row>
     <row r="277" spans="5:12">
-      <c r="E277" s="6"/>
-      <c r="L277" s="6"/>
+      <c r="E277" s="4"/>
+      <c r="L277" s="4"/>
     </row>
     <row r="282" spans="5:12">
-      <c r="E282" s="6"/>
-      <c r="L282" s="6"/>
+      <c r="E282" s="4"/>
+      <c r="L282" s="4"/>
     </row>
     <row r="283" spans="5:12">
-      <c r="E283" s="6"/>
-      <c r="L283" s="6"/>
+      <c r="E283" s="4"/>
+      <c r="L283" s="4"/>
     </row>
     <row r="285" spans="5:12">
-      <c r="E285" s="6"/>
-      <c r="L285" s="6"/>
+      <c r="E285" s="4"/>
+      <c r="L285" s="4"/>
     </row>
     <row r="286" spans="5:12">
-      <c r="E286" s="6"/>
-      <c r="L286" s="6"/>
+      <c r="E286" s="4"/>
+      <c r="L286" s="4"/>
     </row>
     <row r="287" spans="5:12">
-      <c r="E287" s="6"/>
-      <c r="L287" s="6"/>
+      <c r="E287" s="4"/>
+      <c r="L287" s="4"/>
     </row>
     <row r="291" spans="5:12">
-      <c r="E291" s="6"/>
-      <c r="L291" s="6"/>
+      <c r="E291" s="4"/>
+      <c r="L291" s="4"/>
     </row>
     <row r="297" spans="5:12">
-      <c r="E297" s="6"/>
-      <c r="L297" s="6"/>
+      <c r="E297" s="4"/>
+      <c r="L297" s="4"/>
     </row>
     <row r="300" spans="5:12">
-      <c r="E300" s="6"/>
-      <c r="L300" s="6"/>
+      <c r="E300" s="4"/>
+      <c r="L300" s="4"/>
     </row>
     <row r="307" spans="5:12">
-      <c r="E307" s="6"/>
-      <c r="L307" s="6"/>
+      <c r="E307" s="4"/>
+      <c r="L307" s="4"/>
     </row>
     <row r="315" spans="5:12">
-      <c r="E315" s="6"/>
-      <c r="L315" s="6"/>
+      <c r="E315" s="4"/>
+      <c r="L315" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="G95" r:id="rId1"/>
-    <hyperlink ref="E73" r:id="rId2"/>
-    <hyperlink ref="F95" r:id="rId3"/>
-    <hyperlink ref="F24" r:id="rId4"/>
-    <hyperlink ref="I143" r:id="rId5"/>
-    <hyperlink ref="E159" r:id="rId6"/>
-    <hyperlink ref="E148" r:id="rId7"/>
-    <hyperlink ref="I53" r:id="rId8"/>
-    <hyperlink ref="I2" r:id="rId9"/>
-    <hyperlink ref="E30" r:id="rId10"/>
-    <hyperlink ref="E127" r:id="rId11"/>
-    <hyperlink ref="E53" r:id="rId12"/>
-    <hyperlink ref="I30" r:id="rId13"/>
-    <hyperlink ref="I59" r:id="rId14"/>
-    <hyperlink ref="F127" r:id="rId15"/>
-    <hyperlink ref="E146" r:id="rId16"/>
-    <hyperlink ref="E19" r:id="rId17"/>
-    <hyperlink ref="E34" r:id="rId18"/>
-    <hyperlink ref="E35" r:id="rId19"/>
-    <hyperlink ref="I130" r:id="rId20"/>
-    <hyperlink ref="E36" r:id="rId21"/>
-    <hyperlink ref="E37" r:id="rId22"/>
-    <hyperlink ref="I154" r:id="rId23"/>
-    <hyperlink ref="E154" r:id="rId24"/>
-    <hyperlink ref="E97" r:id="rId25"/>
-    <hyperlink ref="I42" r:id="rId26"/>
-    <hyperlink ref="E191" r:id="rId27"/>
-    <hyperlink ref="E45" r:id="rId28"/>
-    <hyperlink ref="E182" r:id="rId29"/>
-    <hyperlink ref="I98" r:id="rId30"/>
-    <hyperlink ref="I28" r:id="rId31"/>
-    <hyperlink ref="E50" r:id="rId32"/>
-    <hyperlink ref="E178" r:id="rId33"/>
-    <hyperlink ref="I138" r:id="rId34"/>
-    <hyperlink ref="E175" r:id="rId35"/>
-    <hyperlink ref="E164" r:id="rId36"/>
-    <hyperlink ref="I164" r:id="rId37"/>
-    <hyperlink ref="I81" r:id="rId38" location="form=human-resources-careers"/>
-    <hyperlink ref="E167" r:id="rId39"/>
-    <hyperlink ref="I167" r:id="rId40"/>
-    <hyperlink ref="E147" r:id="rId41"/>
-    <hyperlink ref="E64" r:id="rId42"/>
-    <hyperlink ref="I84" r:id="rId43"/>
-    <hyperlink ref="E145" r:id="rId44"/>
-    <hyperlink ref="I102" r:id="rId45"/>
-    <hyperlink ref="F126" r:id="rId46"/>
-    <hyperlink ref="E13" r:id="rId47"/>
-    <hyperlink ref="E14" r:id="rId48"/>
+    <hyperlink ref="G95" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E73" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F95" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I143" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E159" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E148" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I53" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I59" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F127" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E146" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I130" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I154" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E154" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E97" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E191" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E182" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I98" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E178" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I138" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E175" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E164" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I164" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I81" r:id="rId38" location="form=human-resources-careers" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E167" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I167" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E147" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E64" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I84" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E145" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I102" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F126" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E14" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6851,14 +7357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
@@ -6910,14 +7416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="B129" sqref="B2:B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="73.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
@@ -6966,2812 +7472,2812 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="8" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="11" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="10"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="14" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="10"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12" t="s">
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="10"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="10"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="10"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="10"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="10"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="10"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="12" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="10"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="6"/>
+      <c r="E63" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="9" t="s">
+      <c r="F63" s="8"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K63" s="10"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="10"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="10"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="8" t="s">
+      <c r="A66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="8" t="s">
+      <c r="F66" s="7"/>
+      <c r="G66" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="10"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8" t="s">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10"/>
-    </row>
-    <row r="68" spans="1:11" ht="30">
-      <c r="A68" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="8" t="s">
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" ht="29.1">
+      <c r="A68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="9">
         <v>6035275514</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="8" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="10"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="10"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="8" t="s">
+      <c r="F70" s="7"/>
+      <c r="G70" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="10"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="10"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="12" t="s">
+      <c r="D72" s="6"/>
+      <c r="E72" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8" t="s">
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="10"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>500</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="8" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="10"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="11" t="s">
+      <c r="D74" s="6"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="10"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="10"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="I76" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="10"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="10"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="10"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="10"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="10"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8" t="s">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="10"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8" t="s">
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="10"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="12" t="s">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="10"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="12" t="s">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="10"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="10"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="8" t="s">
+      <c r="A86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9" t="s">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="10"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="8" t="s">
+      <c r="A87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="10"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11" t="s">
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="10"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="8" t="s">
+      <c r="A89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="10"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="10"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="8" t="s">
+      <c r="A91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="10"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8" t="s">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="10"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="10"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="8" t="s">
+      <c r="A94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="10"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8" t="s">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="10"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="10"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="10"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="10"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8" t="s">
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="10"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8" t="s">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="10"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8" t="s">
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="10"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="10"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="11" t="s">
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="10"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="8" t="s">
+      <c r="A104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="10"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="8" t="s">
+      <c r="A105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="8" t="s">
+      <c r="E105" s="6"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="10"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="9" t="s">
+      <c r="A106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="12" t="s">
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="10"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="8" t="s">
+      <c r="A107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="10"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="8" t="s">
+      <c r="A108" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="9" t="s">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="10"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="8" t="s">
+      <c r="A109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="9" t="s">
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="10"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="8" t="s">
+      <c r="A110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="8" t="s">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="H110" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="10"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="8" t="s">
+      <c r="A111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="10"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="8" t="s">
+      <c r="A112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="10"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="10"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="8" t="s">
+      <c r="A114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="10"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="A115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="9" t="s">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="10"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="8" t="s">
+      <c r="A116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="10"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="8" t="s">
+      <c r="A117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="9" t="s">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="10"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="A118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="9" t="s">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="10"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="11" t="s">
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="10"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="8" t="s">
+      <c r="A120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9" t="s">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K120" s="10"/>
+      <c r="K120" s="7"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="8" t="s">
+      <c r="A121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="10"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="8" t="s">
+      <c r="A122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="11" t="s">
+      <c r="D122" s="6"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="10"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" s="8" t="s">
+      <c r="A123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="10"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="8" t="s">
+      <c r="A124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="10"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="8" t="s">
+      <c r="A125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8" t="s">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="H125" s="9"/>
-      <c r="I125" s="8" t="s">
+      <c r="H125" s="7"/>
+      <c r="I125" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="10"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="8" t="s">
+      <c r="A126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="11" t="s">
+      <c r="D126" s="6"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="10"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="8" t="s">
+      <c r="A127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="10"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="8" t="s">
+      <c r="A128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="11" t="s">
+      <c r="D128" s="6"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="10"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="8" t="s">
+      <c r="A129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8" t="s">
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="I129" s="8" t="s">
+      <c r="I129" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="10"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="1"/>
@@ -9781,9 +10287,6 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="1"/>
@@ -9793,50 +10296,1051 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G68" r:id="rId1"/>
-    <hyperlink ref="E54" r:id="rId2"/>
-    <hyperlink ref="F68" r:id="rId3"/>
-    <hyperlink ref="F38" r:id="rId4"/>
-    <hyperlink ref="I55" r:id="rId5"/>
-    <hyperlink ref="E63" r:id="rId6"/>
-    <hyperlink ref="I26" r:id="rId7"/>
-    <hyperlink ref="E3" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9"/>
-    <hyperlink ref="E26" r:id="rId10"/>
-    <hyperlink ref="I3" r:id="rId11"/>
-    <hyperlink ref="F23" r:id="rId12"/>
-    <hyperlink ref="E8" r:id="rId13"/>
-    <hyperlink ref="E51" r:id="rId14"/>
-    <hyperlink ref="E45" r:id="rId15"/>
-    <hyperlink ref="I76" r:id="rId16"/>
-    <hyperlink ref="E19" r:id="rId17"/>
-    <hyperlink ref="E59" r:id="rId18"/>
-    <hyperlink ref="I72" r:id="rId19"/>
-    <hyperlink ref="E72" r:id="rId20"/>
-    <hyperlink ref="E50" r:id="rId21"/>
-    <hyperlink ref="E36" r:id="rId22"/>
-    <hyperlink ref="E35" r:id="rId23"/>
-    <hyperlink ref="I84" r:id="rId24"/>
-    <hyperlink ref="I83" r:id="rId25"/>
-    <hyperlink ref="E2" r:id="rId26"/>
-    <hyperlink ref="E12" r:id="rId27"/>
-    <hyperlink ref="I12" r:id="rId28"/>
-    <hyperlink ref="E69" r:id="rId29"/>
-    <hyperlink ref="E20" r:id="rId30"/>
-    <hyperlink ref="E62" r:id="rId31"/>
-    <hyperlink ref="I106" r:id="rId32"/>
-    <hyperlink ref="F48" r:id="rId33"/>
-    <hyperlink ref="E57" r:id="rId34"/>
+    <hyperlink ref="G68" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E54" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F68" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F38" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="I55" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E63" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="I26" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="I3" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="E51" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="E45" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="I76" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="E59" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="I72" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="E72" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="E50" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="E36" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="E35" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="I84" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="I83" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="E2" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="E12" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="I12" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="E69" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="E20" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="E62" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="I106" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="F48" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="E57" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D243E39B-96C0-4141-8B3A-AE9021CA7CFA}">
+  <dimension ref="A1:C96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0" xr3:uid="{F6973492-7A3D-51EC-A7DE-DE14DE5C2175}">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6">
+      <c r="A10" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C13" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="B14" t="s">
+        <v>740</v>
+      </c>
+      <c r="C14" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
+        <v>742</v>
+      </c>
+      <c r="C15" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>746</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
+        <v>747</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B19" t="s">
+        <v>748</v>
+      </c>
+      <c r="C19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" t="s">
+        <v>749</v>
+      </c>
+      <c r="C21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>751</v>
+      </c>
+      <c r="C22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>753</v>
+      </c>
+      <c r="C23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>755</v>
+      </c>
+      <c r="C24" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" t="s">
+        <v>764</v>
+      </c>
+      <c r="C31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="B32" t="s">
+        <v>766</v>
+      </c>
+      <c r="C32" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B33" t="s">
+        <v>767</v>
+      </c>
+      <c r="C33" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B34" t="s">
+        <v>768</v>
+      </c>
+      <c r="C34" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>770</v>
+      </c>
+      <c r="C35" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>772</v>
+      </c>
+      <c r="C36" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" t="s">
+        <v>774</v>
+      </c>
+      <c r="C37" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>776</v>
+      </c>
+      <c r="C38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>778</v>
+      </c>
+      <c r="C39" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" t="s">
+        <v>780</v>
+      </c>
+      <c r="C40" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>782</v>
+      </c>
+      <c r="C41" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B43" t="s">
+        <v>785</v>
+      </c>
+      <c r="C43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>786</v>
+      </c>
+      <c r="C44" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" t="s">
+        <v>788</v>
+      </c>
+      <c r="C45" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>790</v>
+      </c>
+      <c r="C46" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>792</v>
+      </c>
+      <c r="C47" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>794</v>
+      </c>
+      <c r="C48" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>796</v>
+      </c>
+      <c r="C49" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B50" t="s">
+        <v>798</v>
+      </c>
+      <c r="C50" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B51" t="s">
+        <v>800</v>
+      </c>
+      <c r="C51" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>802</v>
+      </c>
+      <c r="C52" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
+        <v>807</v>
+      </c>
+      <c r="C56" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B57" t="s">
+        <v>731</v>
+      </c>
+      <c r="C57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" t="s">
+        <v>809</v>
+      </c>
+      <c r="C58" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B59" t="s">
+        <v>811</v>
+      </c>
+      <c r="C59" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="B60" t="s">
+        <v>813</v>
+      </c>
+      <c r="C60" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" t="s">
+        <v>815</v>
+      </c>
+      <c r="C61" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B62" t="s">
+        <v>817</v>
+      </c>
+      <c r="C62" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>818</v>
+      </c>
+      <c r="C63" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B64" t="s">
+        <v>820</v>
+      </c>
+      <c r="C64" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>822</v>
+      </c>
+      <c r="C65" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B66" t="s">
+        <v>824</v>
+      </c>
+      <c r="C66" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>826</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>827</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>828</v>
+      </c>
+      <c r="C69" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" t="s">
+        <v>830</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>747</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s">
+        <v>831</v>
+      </c>
+      <c r="C72" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>833</v>
+      </c>
+      <c r="C73" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" t="s">
+        <v>835</v>
+      </c>
+      <c r="C74" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" t="s">
+        <v>837</v>
+      </c>
+      <c r="C75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" t="s">
+        <v>755</v>
+      </c>
+      <c r="C76" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" t="s">
+        <v>839</v>
+      </c>
+      <c r="C77" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B78" t="s">
+        <v>841</v>
+      </c>
+      <c r="C78" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" t="s">
+        <v>843</v>
+      </c>
+      <c r="C79" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B80" t="s">
+        <v>845</v>
+      </c>
+      <c r="C80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B81" t="s">
+        <v>846</v>
+      </c>
+      <c r="C81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B82" t="s">
+        <v>847</v>
+      </c>
+      <c r="C82" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B83" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B84" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B85" t="s">
+        <v>851</v>
+      </c>
+      <c r="C85" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B86" t="s">
+        <v>853</v>
+      </c>
+      <c r="C86" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B87" t="s">
+        <v>855</v>
+      </c>
+      <c r="C87" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B88" t="s">
+        <v>856</v>
+      </c>
+      <c r="C88" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B89" t="s">
+        <v>858</v>
+      </c>
+      <c r="C89" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B90" t="s">
+        <v>859</v>
+      </c>
+      <c r="C90" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B91" t="s">
+        <v>861</v>
+      </c>
+      <c r="C91" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B92" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B93" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B94" t="s">
+        <v>865</v>
+      </c>
+      <c r="C94" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B95" t="s">
+        <v>867</v>
+      </c>
+      <c r="C95" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B96" t="s">
+        <v>869</v>
+      </c>
+      <c r="C96" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.dynomitedynamometer.com/corporate/directions.htm" xr:uid="{06D008B7-6AD3-4545-B772-25021F5FEC8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Business/Finance/Sponsorship/Companies_Final.xlsx
+++ b/Business/Finance/Sponsorship/Companies_Final.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wildcatsunh-my.sharepoint.com/personal/cag1043_wildcats_unh_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\Sponsorship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41166FB5-48C8-44FB-AA60-3BB8835BF0C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sponsor List" sheetId="3" r:id="rId1"/>
@@ -21,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsor List'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="856">
   <si>
     <t>Company Name</t>
   </si>
@@ -2148,55 +2147,13 @@
     <t>CMASS Berwick Field Launch Site</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Secondary Number</t>
-  </si>
-  <si>
-    <t>Secondary Email</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Info3</t>
-  </si>
-  <si>
-    <t>Info4</t>
-  </si>
-  <si>
-    <t>Info5</t>
-  </si>
-  <si>
-    <t>took our email</t>
-  </si>
-  <si>
     <t> sales@land-and-sea.com</t>
-  </si>
-  <si>
-    <t>Reilly is hitting up</t>
-  </si>
-  <si>
-    <t>Message on Linkedin</t>
-  </si>
-  <si>
-    <t>Nick is contacting</t>
-  </si>
-  <si>
-    <t>Message via linkedin</t>
-  </si>
-  <si>
-    <t>Call back next semester</t>
   </si>
   <si>
     <t>Local Company</t>
@@ -2654,11 +2611,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,7 +2707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2763,9 +2717,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2797,10 +2748,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -2815,7 +2763,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left"/>
@@ -2834,7 +2781,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left"/>
@@ -2853,7 +2799,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left"/>
@@ -2872,7 +2817,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left"/>
@@ -2891,140 +2835,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3042,7 +2852,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3060,7 +2869,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3078,7 +2886,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3096,7 +2903,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3114,7 +2920,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3132,7 +2937,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3150,7 +2954,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3168,7 +2971,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3186,7 +2988,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3204,7 +3005,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -3222,44 +3022,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="B1:J210" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:J210" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B1:J210"/>
   <sortState ref="B2:J210">
     <sortCondition ref="B1:B210"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company Name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Phone Number" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Secondary Phone Number" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Email" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Secondary Email (If Given)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Contact Name for EMAIL" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Information" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LinkedIn/WebForm" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="1" name="Company Name" dataDxfId="12"/>
+    <tableColumn id="2" name="Phone Number" dataDxfId="11"/>
+    <tableColumn id="6" name="Secondary Phone Number" dataDxfId="10"/>
+    <tableColumn id="3" name="Email" dataDxfId="9"/>
+    <tableColumn id="4" name="Secondary Email (If Given)" dataDxfId="8"/>
+    <tableColumn id="5" name="Contact Name for EMAIL" dataDxfId="7"/>
+    <tableColumn id="7" name="Information" dataDxfId="6"/>
+    <tableColumn id="8" name="LinkedIn/WebForm" dataDxfId="5"/>
+    <tableColumn id="9" name="Column1" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:K129" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:K129" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C129" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C129"/>
   <sortState ref="A2:K129">
-    <sortCondition ref="E1:E129"/>
+    <sortCondition ref="A1:A129"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Current" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Number" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Secondary Number" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Email" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Secondary Email" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name2" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Info" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Info3" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Info4" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Info5" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="2" name="Name" dataDxfId="2"/>
+    <tableColumn id="3" name="Number" dataDxfId="1"/>
+    <tableColumn id="5" name="Email" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3551,14 +3343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView topLeftCell="E175" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView topLeftCell="E175" workbookViewId="0">
       <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
@@ -3572,7 +3364,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3618,7 +3410,7 @@
       <c r="J2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3638,7 +3430,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3450,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3674,7 +3466,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3689,7 +3481,7 @@
       <c r="J6"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3716,7 +3508,7 @@
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3525,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -3754,7 +3546,7 @@
       <c r="J9"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3775,7 +3567,7 @@
       <c r="J10"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3794,7 +3586,7 @@
       <c r="J11"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +3605,7 @@
       <c r="J12"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3833,7 +3625,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3854,7 +3646,7 @@
       <c r="J14"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3875,7 +3667,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3892,7 +3684,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3907,7 +3699,7 @@
       <c r="J17"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3934,7 +3726,7 @@
       <c r="J18"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3954,7 +3746,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -3978,7 +3770,7 @@
       <c r="J20"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,7 +3790,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -4016,7 +3808,7 @@
       <c r="J22"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -4033,7 +3825,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -4056,7 +3848,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -4070,7 +3862,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -4090,7 +3882,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -4107,7 +3899,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +3915,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -4140,7 +3932,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -4161,7 +3953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>118</v>
       </c>
@@ -4178,7 +3970,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -4195,7 +3987,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>125</v>
       </c>
@@ -4215,7 +4007,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -4232,7 +4024,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -4249,7 +4041,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -4266,7 +4058,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -4283,7 +4075,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4297,7 +4089,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>144</v>
       </c>
@@ -4314,7 +4106,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>148</v>
       </c>
@@ -4328,7 +4120,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -4345,7 +4137,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>118</v>
       </c>
@@ -4361,7 +4153,7 @@
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
@@ -4375,7 +4167,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>160</v>
       </c>
@@ -4391,7 +4183,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -4408,7 +4200,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -4425,7 +4217,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -4443,7 +4235,7 @@
       <c r="J47"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -4465,7 +4257,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -4479,7 +4271,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
@@ -4496,7 +4288,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4518,7 +4310,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -4535,7 +4327,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>192</v>
       </c>
@@ -4555,7 +4347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -4575,7 +4367,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -4589,7 +4381,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -4609,7 +4401,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -4623,7 +4415,7 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
@@ -4640,7 +4432,7 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -4656,7 +4448,7 @@
       </c>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4676,7 +4468,7 @@
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -4696,7 +4488,7 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>222</v>
       </c>
@@ -4710,7 +4502,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -4724,7 +4516,7 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -4744,7 +4536,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -4761,7 +4553,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -4781,7 +4573,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>237</v>
       </c>
@@ -4798,7 +4590,7 @@
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -4812,7 +4604,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>243</v>
       </c>
@@ -4832,7 +4624,7 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
@@ -4845,7 +4637,7 @@
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1">
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>13</v>
       </c>
@@ -4862,7 +4654,7 @@
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -4879,7 +4671,7 @@
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -4900,7 +4692,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="17.25" customHeight="1">
+    <row r="74" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -4918,7 +4710,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>13</v>
       </c>
@@ -4935,7 +4727,7 @@
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
@@ -4952,7 +4744,7 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -4969,7 +4761,7 @@
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>272</v>
       </c>
@@ -4986,7 +4778,7 @@
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>276</v>
       </c>
@@ -5006,7 +4798,7 @@
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +4815,7 @@
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -5039,7 +4831,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -5056,7 +4848,7 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -5076,7 +4868,7 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -5092,7 +4884,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -5109,7 +4901,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -5132,7 +4924,7 @@
       <c r="J86"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -5146,7 +4938,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -5165,7 +4957,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -5179,7 +4971,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -5193,7 +4985,7 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -5207,7 +4999,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5017,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -5239,7 +5031,7 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -5261,7 +5053,7 @@
       <c r="J94"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="29.1">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -5287,7 +5079,7 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -5310,7 +5102,7 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>334</v>
       </c>
@@ -5326,7 +5118,7 @@
       <c r="F97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
@@ -5343,7 +5135,7 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5357,7 +5149,7 @@
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
@@ -5380,7 +5172,7 @@
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -5401,7 +5193,7 @@
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -5421,7 +5213,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>353</v>
       </c>
@@ -5445,7 +5237,7 @@
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -5459,7 +5251,7 @@
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -5480,7 +5272,7 @@
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>365</v>
       </c>
@@ -5501,7 +5293,7 @@
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>370</v>
       </c>
@@ -5522,7 +5314,7 @@
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>144</v>
       </c>
@@ -5548,7 +5340,7 @@
       <c r="I108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -5564,7 +5356,7 @@
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -5580,7 +5372,7 @@
       </c>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -5600,7 +5392,7 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -5620,7 +5412,7 @@
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>395</v>
       </c>
@@ -5641,7 +5433,7 @@
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>400</v>
       </c>
@@ -5662,7 +5454,7 @@
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -5680,7 +5472,7 @@
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -5701,7 +5493,7 @@
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -5715,7 +5507,7 @@
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5528,7 @@
       <c r="I118"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -5754,7 +5546,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -5775,7 +5567,7 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>425</v>
       </c>
@@ -5790,7 +5582,7 @@
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>428</v>
       </c>
@@ -5811,7 +5603,7 @@
       <c r="J122"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>334</v>
       </c>
@@ -5826,7 +5618,7 @@
       <c r="J123"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -5841,7 +5633,7 @@
       <c r="I124"/>
       <c r="J124"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>370</v>
       </c>
@@ -5858,7 +5650,7 @@
       <c r="I125"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>440</v>
       </c>
@@ -5880,7 +5672,7 @@
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>370</v>
       </c>
@@ -5904,7 +5696,7 @@
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -5918,7 +5710,7 @@
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>451</v>
       </c>
@@ -5929,7 +5721,7 @@
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>365</v>
       </c>
@@ -5947,7 +5739,7 @@
       </c>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>395</v>
       </c>
@@ -5967,7 +5759,7 @@
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -5987,7 +5779,7 @@
       <c r="I132"/>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>465</v>
       </c>
@@ -6004,7 +5796,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>469</v>
       </c>
@@ -6025,7 +5817,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -6039,7 +5831,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>118</v>
       </c>
@@ -6059,7 +5851,7 @@
       <c r="I136"/>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>13</v>
       </c>
@@ -6073,7 +5865,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>482</v>
       </c>
@@ -6092,7 +5884,7 @@
       </c>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -6108,7 +5900,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
@@ -6122,7 +5914,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
@@ -6138,7 +5930,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -6155,7 +5947,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>13</v>
       </c>
@@ -6178,7 +5970,7 @@
       <c r="J143"/>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>370</v>
       </c>
@@ -6195,7 +5987,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>370</v>
       </c>
@@ -6212,7 +6004,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>509</v>
       </c>
@@ -6236,7 +6028,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>516</v>
       </c>
@@ -6256,7 +6048,7 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>520</v>
       </c>
@@ -6278,7 +6070,7 @@
       <c r="I148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>526</v>
       </c>
@@ -6297,7 +6089,7 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>531</v>
       </c>
@@ -6313,7 +6105,7 @@
       </c>
       <c r="J150"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>370</v>
       </c>
@@ -6327,7 +6119,7 @@
       <c r="I151"/>
       <c r="J151"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>370</v>
       </c>
@@ -6346,7 +6138,7 @@
       </c>
       <c r="J152"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>370</v>
       </c>
@@ -6360,7 +6152,7 @@
       <c r="I153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -6384,7 +6176,7 @@
       </c>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -6407,7 +6199,7 @@
       <c r="I155"/>
       <c r="J155"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
@@ -6426,7 +6218,7 @@
       <c r="I156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>555</v>
       </c>
@@ -6442,7 +6234,7 @@
       <c r="I157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>558</v>
       </c>
@@ -6462,7 +6254,7 @@
       <c r="I158"/>
       <c r="J158"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -6483,7 +6275,7 @@
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -6500,7 +6292,7 @@
       <c r="I160"/>
       <c r="J160"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>569</v>
       </c>
@@ -6521,7 +6313,7 @@
       <c r="J161"/>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -6538,7 +6330,7 @@
       </c>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>395</v>
       </c>
@@ -6555,7 +6347,7 @@
       <c r="I163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>395</v>
       </c>
@@ -6579,7 +6371,7 @@
       </c>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>395</v>
       </c>
@@ -6596,7 +6388,7 @@
       </c>
       <c r="J165"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -6613,7 +6405,7 @@
       <c r="I166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>370</v>
       </c>
@@ -6643,7 +6435,7 @@
       </c>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>600</v>
       </c>
@@ -6657,7 +6449,7 @@
       <c r="I168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -6676,7 +6468,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>607</v>
       </c>
@@ -6694,7 +6486,7 @@
       <c r="J170"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -6708,7 +6500,7 @@
       <c r="I171"/>
       <c r="J171"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
@@ -6725,7 +6517,7 @@
       </c>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>615</v>
       </c>
@@ -6740,7 +6532,7 @@
       <c r="J173"/>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
@@ -6754,7 +6546,7 @@
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>607</v>
       </c>
@@ -6772,7 +6564,7 @@
       <c r="J175"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>395</v>
       </c>
@@ -6789,7 +6581,7 @@
       <c r="I176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>626</v>
       </c>
@@ -6806,7 +6598,7 @@
       </c>
       <c r="J177"/>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>630</v>
       </c>
@@ -6820,7 +6612,7 @@
       <c r="I178"/>
       <c r="J178"/>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>633</v>
       </c>
@@ -6836,7 +6628,7 @@
       <c r="I179"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>633</v>
       </c>
@@ -6853,7 +6645,7 @@
       <c r="I180"/>
       <c r="J180"/>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>13</v>
       </c>
@@ -6867,7 +6659,7 @@
       <c r="I181"/>
       <c r="J181"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>13</v>
       </c>
@@ -6885,7 +6677,7 @@
       <c r="J182"/>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>13</v>
       </c>
@@ -6904,7 +6696,7 @@
       </c>
       <c r="J183"/>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>13</v>
       </c>
@@ -6921,7 +6713,7 @@
       </c>
       <c r="J184"/>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>13</v>
       </c>
@@ -6935,7 +6727,7 @@
       <c r="I185"/>
       <c r="J185"/>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>653</v>
       </c>
@@ -6956,7 +6748,7 @@
       </c>
       <c r="J186"/>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>659</v>
       </c>
@@ -6970,7 +6762,7 @@
       <c r="I187"/>
       <c r="J187"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>395</v>
       </c>
@@ -6990,7 +6782,7 @@
       <c r="I188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>13</v>
       </c>
@@ -7008,7 +6800,7 @@
       <c r="J189"/>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>669</v>
       </c>
@@ -7025,7 +6817,7 @@
       <c r="I190"/>
       <c r="J190"/>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>673</v>
       </c>
@@ -7042,7 +6834,7 @@
       <c r="I191"/>
       <c r="J191"/>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>395</v>
       </c>
@@ -7058,7 +6850,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>680</v>
       </c>
@@ -7078,7 +6870,7 @@
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>685</v>
       </c>
@@ -7092,7 +6884,7 @@
       <c r="I194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>688</v>
       </c>
@@ -7110,7 +6902,7 @@
       <c r="J195"/>
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>13</v>
       </c>
@@ -7127,7 +6919,7 @@
       <c r="I196"/>
       <c r="J196"/>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -7144,7 +6936,7 @@
       <c r="I197"/>
       <c r="J197"/>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
@@ -7165,32 +6957,32 @@
       </c>
       <c r="J198"/>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H199"/>
       <c r="I199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H200"/>
       <c r="I200"/>
       <c r="J200"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202"/>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H203"/>
       <c r="I203"/>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C204"/>
       <c r="D204" s="4"/>
       <c r="F204" s="4"/>
@@ -7198,32 +6990,32 @@
       <c r="I204"/>
       <c r="J204"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H205"/>
       <c r="I205"/>
       <c r="J205"/>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H206"/>
       <c r="I206"/>
       <c r="J206"/>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H207"/>
       <c r="I207"/>
       <c r="J207"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H208"/>
       <c r="I208"/>
       <c r="J208"/>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H209"/>
       <c r="I209"/>
       <c r="J209"/>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
@@ -7234,120 +7026,120 @@
       <c r="I210"/>
       <c r="J210"/>
     </row>
-    <row r="234" spans="5:12">
+    <row r="234" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E234" s="4"/>
       <c r="L234" s="4"/>
     </row>
-    <row r="270" spans="5:12">
+    <row r="270" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E270" s="4"/>
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="5:12">
+    <row r="271" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F271" s="4"/>
     </row>
-    <row r="272" spans="5:12">
+    <row r="272" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E272" s="4"/>
       <c r="L272" s="4"/>
     </row>
-    <row r="274" spans="5:12">
+    <row r="274" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E274" s="4"/>
       <c r="L274" s="4"/>
     </row>
-    <row r="277" spans="5:12">
+    <row r="277" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E277" s="4"/>
       <c r="L277" s="4"/>
     </row>
-    <row r="282" spans="5:12">
+    <row r="282" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E282" s="4"/>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="5:12">
+    <row r="283" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E283" s="4"/>
       <c r="L283" s="4"/>
     </row>
-    <row r="285" spans="5:12">
+    <row r="285" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E285" s="4"/>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="5:12">
+    <row r="286" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E286" s="4"/>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="5:12">
+    <row r="287" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E287" s="4"/>
       <c r="L287" s="4"/>
     </row>
-    <row r="291" spans="5:12">
+    <row r="291" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E291" s="4"/>
       <c r="L291" s="4"/>
     </row>
-    <row r="297" spans="5:12">
+    <row r="297" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E297" s="4"/>
       <c r="L297" s="4"/>
     </row>
-    <row r="300" spans="5:12">
+    <row r="300" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E300" s="4"/>
       <c r="L300" s="4"/>
     </row>
-    <row r="307" spans="5:12">
+    <row r="307" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E307" s="4"/>
       <c r="L307" s="4"/>
     </row>
-    <row r="315" spans="5:12">
+    <row r="315" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E315" s="4"/>
       <c r="L315" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A1048576"/>
   <hyperlinks>
-    <hyperlink ref="G95" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E73" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F95" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I143" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E159" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E148" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I53" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I59" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F127" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E146" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I130" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I154" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E154" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E97" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E191" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E182" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I98" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E50" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E178" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I138" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E175" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E164" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I164" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I81" r:id="rId38" location="form=human-resources-careers" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E167" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I167" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E147" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E64" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I84" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E145" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I102" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F126" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E13" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E14" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G95" r:id="rId1"/>
+    <hyperlink ref="E73" r:id="rId2"/>
+    <hyperlink ref="F95" r:id="rId3"/>
+    <hyperlink ref="F24" r:id="rId4"/>
+    <hyperlink ref="I143" r:id="rId5"/>
+    <hyperlink ref="E159" r:id="rId6"/>
+    <hyperlink ref="E148" r:id="rId7"/>
+    <hyperlink ref="I53" r:id="rId8"/>
+    <hyperlink ref="I2" r:id="rId9"/>
+    <hyperlink ref="E30" r:id="rId10"/>
+    <hyperlink ref="E127" r:id="rId11"/>
+    <hyperlink ref="E53" r:id="rId12"/>
+    <hyperlink ref="I30" r:id="rId13"/>
+    <hyperlink ref="I59" r:id="rId14"/>
+    <hyperlink ref="F127" r:id="rId15"/>
+    <hyperlink ref="E146" r:id="rId16"/>
+    <hyperlink ref="E19" r:id="rId17"/>
+    <hyperlink ref="E34" r:id="rId18"/>
+    <hyperlink ref="E35" r:id="rId19"/>
+    <hyperlink ref="I130" r:id="rId20"/>
+    <hyperlink ref="E36" r:id="rId21"/>
+    <hyperlink ref="E37" r:id="rId22"/>
+    <hyperlink ref="I154" r:id="rId23"/>
+    <hyperlink ref="E154" r:id="rId24"/>
+    <hyperlink ref="E97" r:id="rId25"/>
+    <hyperlink ref="I42" r:id="rId26"/>
+    <hyperlink ref="E191" r:id="rId27"/>
+    <hyperlink ref="E45" r:id="rId28"/>
+    <hyperlink ref="E182" r:id="rId29"/>
+    <hyperlink ref="I98" r:id="rId30"/>
+    <hyperlink ref="I28" r:id="rId31"/>
+    <hyperlink ref="E50" r:id="rId32"/>
+    <hyperlink ref="E178" r:id="rId33"/>
+    <hyperlink ref="I138" r:id="rId34"/>
+    <hyperlink ref="E175" r:id="rId35"/>
+    <hyperlink ref="E164" r:id="rId36"/>
+    <hyperlink ref="I164" r:id="rId37"/>
+    <hyperlink ref="I81" r:id="rId38" location="form=human-resources-careers"/>
+    <hyperlink ref="E167" r:id="rId39"/>
+    <hyperlink ref="I167" r:id="rId40"/>
+    <hyperlink ref="E147" r:id="rId41"/>
+    <hyperlink ref="E64" r:id="rId42"/>
+    <hyperlink ref="I84" r:id="rId43"/>
+    <hyperlink ref="E145" r:id="rId44"/>
+    <hyperlink ref="I102" r:id="rId45"/>
+    <hyperlink ref="F126" r:id="rId46"/>
+    <hyperlink ref="E13" r:id="rId47"/>
+    <hyperlink ref="E14" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7357,55 +7149,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>705</v>
       </c>
@@ -7416,27 +7208,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="B129" sqref="B2:B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1"/>
-    <col min="8" max="8" width="76.42578125" customWidth="1"/>
-    <col min="9" max="9" width="169" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" customWidth="1"/>
+    <col min="6" max="6" width="76.42578125" customWidth="1"/>
+    <col min="7" max="7" width="169" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>706</v>
       </c>
@@ -7444,3893 +7234,2337 @@
         <v>707</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="D1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>710</v>
-      </c>
-      <c r="G1" t="s">
-        <v>711</v>
-      </c>
-      <c r="H1" t="s">
-        <v>712</v>
-      </c>
-      <c r="I1" t="s">
-        <v>713</v>
-      </c>
-      <c r="J1" t="s">
-        <v>714</v>
-      </c>
-      <c r="K1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B60" s="8">
+        <v>6035275514</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="C125" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="C128" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:11" ht="29.1">
-      <c r="A68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C68" s="9">
-        <v>6035275514</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="5">
-        <v>500</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K120" s="7"/>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="6" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:11">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G68" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E54" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F68" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="F38" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="I55" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E63" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="I26" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="E26" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="I3" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="F23" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="E51" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="E45" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="I76" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="E59" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="I72" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="E72" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="E50" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="E36" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="E35" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="I84" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="I83" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="E2" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="E12" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="I12" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="E69" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="E20" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="E62" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="I106" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="F48" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="E57" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="C49" r:id="rId1"/>
+    <hyperlink ref="C107" r:id="rId2"/>
+    <hyperlink ref="C22" r:id="rId3"/>
+    <hyperlink ref="C86" r:id="rId4"/>
+    <hyperlink ref="C36" r:id="rId5"/>
+    <hyperlink ref="C98" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C25" r:id="rId8"/>
+    <hyperlink ref="C26" r:id="rId9"/>
+    <hyperlink ref="C27" r:id="rId10"/>
+    <hyperlink ref="C103" r:id="rId11"/>
+    <hyperlink ref="C62" r:id="rId12"/>
+    <hyperlink ref="C124" r:id="rId13"/>
+    <hyperlink ref="C118" r:id="rId14"/>
+    <hyperlink ref="C34" r:id="rId15"/>
+    <hyperlink ref="C110" r:id="rId16"/>
+    <hyperlink ref="C99" r:id="rId17"/>
+    <hyperlink ref="C41" r:id="rId18"/>
+    <hyperlink ref="C97" r:id="rId19"/>
+    <hyperlink ref="C9" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D243E39B-96C0-4141-8B3A-AE9021CA7CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0" xr3:uid="{F6973492-7A3D-51EC-A7DE-DE14DE5C2175}">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" t="s">
         <v>723</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="C13" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B14" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6">
-      <c r="A4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C14" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
-      <c r="A5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C15" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C16" s="16" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
-      <c r="A9" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B9" s="15" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
         <v>732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6">
-      <c r="A10" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>734</v>
-      </c>
-      <c r="C11" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>736</v>
-      </c>
-      <c r="C12" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" t="s">
-        <v>738</v>
-      </c>
-      <c r="C13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" t="s">
-        <v>740</v>
-      </c>
-      <c r="C14" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" t="s">
-        <v>742</v>
-      </c>
-      <c r="C15" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B16" t="s">
-        <v>744</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>746</v>
       </c>
       <c r="C17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>634</v>
       </c>
       <c r="B19" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C19" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>446</v>
       </c>
       <c r="B21" t="s">
+        <v>735</v>
+      </c>
+      <c r="C21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>737</v>
+      </c>
+      <c r="C22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>739</v>
+      </c>
+      <c r="C23" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>741</v>
+      </c>
+      <c r="C24" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B30" t="s">
+        <v>748</v>
+      </c>
+      <c r="C30" t="s">
         <v>749</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C31" t="s">
         <v>751</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B32" t="s">
         <v>752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>753</v>
-      </c>
-      <c r="C23" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" t="s">
-        <v>755</v>
-      </c>
-      <c r="C24" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="B29" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B30" t="s">
-        <v>762</v>
-      </c>
-      <c r="C30" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B31" t="s">
-        <v>764</v>
-      </c>
-      <c r="C31" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="B32" t="s">
-        <v>766</v>
       </c>
       <c r="C32" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>674</v>
       </c>
       <c r="B33" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="C33" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>695</v>
       </c>
       <c r="B34" t="s">
+        <v>754</v>
+      </c>
+      <c r="C34" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>756</v>
+      </c>
+      <c r="C35" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>758</v>
+      </c>
+      <c r="C36" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" t="s">
+        <v>760</v>
+      </c>
+      <c r="C37" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>762</v>
+      </c>
+      <c r="C38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>764</v>
+      </c>
+      <c r="C39" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" t="s">
+        <v>766</v>
+      </c>
+      <c r="C40" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
         <v>768</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" t="s">
         <v>770</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B43" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>772</v>
-      </c>
-      <c r="C36" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B37" t="s">
-        <v>774</v>
-      </c>
-      <c r="C37" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>776</v>
-      </c>
-      <c r="C38" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>778</v>
-      </c>
-      <c r="C39" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B40" t="s">
-        <v>780</v>
-      </c>
-      <c r="C40" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" t="s">
-        <v>782</v>
-      </c>
-      <c r="C41" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B42" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B43" t="s">
-        <v>785</v>
       </c>
       <c r="C43" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B44" t="s">
+        <v>772</v>
+      </c>
+      <c r="C44" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" t="s">
+        <v>774</v>
+      </c>
+      <c r="C45" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>776</v>
+      </c>
+      <c r="C46" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>778</v>
+      </c>
+      <c r="C47" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>780</v>
+      </c>
+      <c r="C48" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>782</v>
+      </c>
+      <c r="C49" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B50" t="s">
+        <v>784</v>
+      </c>
+      <c r="C50" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B51" t="s">
         <v>786</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
         <v>788</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C52" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" t="s">
         <v>790</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" t="s">
         <v>792</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C56" t="s">
         <v>794</v>
       </c>
-      <c r="C48" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" t="s">
-        <v>796</v>
-      </c>
-      <c r="C49" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B50" t="s">
-        <v>798</v>
-      </c>
-      <c r="C50" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B51" t="s">
-        <v>800</v>
-      </c>
-      <c r="C51" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" t="s">
-        <v>802</v>
-      </c>
-      <c r="C52" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B53" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B54" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" t="s">
-        <v>807</v>
-      </c>
-      <c r="C56" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>517</v>
       </c>
       <c r="B57" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C57" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="C58" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>540</v>
       </c>
       <c r="B59" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="C59" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>627</v>
       </c>
       <c r="B60" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="C60" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C61" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>454</v>
       </c>
       <c r="B62" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="C62" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C63" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="12" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>654</v>
       </c>
       <c r="B64" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C64" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B65" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C65" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="12" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B66" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="11" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="C69" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="11" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="C70" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C71" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>241</v>
       </c>
       <c r="B72" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="C72" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="11" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>264</v>
       </c>
       <c r="B73" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="C73" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="C74" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>309</v>
       </c>
       <c r="B75" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="C75" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>315</v>
       </c>
       <c r="B76" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="C76" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B77" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="C77" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="11" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>350</v>
       </c>
       <c r="B78" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="C78" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="12" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>359</v>
       </c>
       <c r="B79" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="C79" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>381</v>
       </c>
       <c r="B80" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="C80" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="C81" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
         <v>391</v>
       </c>
       <c r="B82" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C82" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>435</v>
       </c>
       <c r="B83" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>480</v>
       </c>
       <c r="B84" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="12" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>487</v>
       </c>
       <c r="B85" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="C85" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>490</v>
       </c>
       <c r="B86" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="C86" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="12" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>492</v>
       </c>
       <c r="B87" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C87" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>551</v>
       </c>
       <c r="B88" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="C88" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>603</v>
       </c>
       <c r="B89" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="C89" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B90" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="C90" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>618</v>
       </c>
       <c r="B91" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="C91" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="11" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>639</v>
       </c>
       <c r="B92" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>644</v>
       </c>
       <c r="B93" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>648</v>
       </c>
       <c r="B94" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="C94" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>651</v>
       </c>
       <c r="B95" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C95" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>666</v>
       </c>
       <c r="B96" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="C96" t="s">
         <v>667</v>
@@ -11338,7 +9572,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.dynomitedynamometer.com/corporate/directions.htm" xr:uid="{06D008B7-6AD3-4545-B772-25021F5FEC8D}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.dynomitedynamometer.com/corporate/directions.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
